--- a/medicine/Mort/Cimetière_de_Komarovo/Cimetière_de_Komarovo.xlsx
+++ b/medicine/Mort/Cimetière_de_Komarovo/Cimetière_de_Komarovo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Komarovo</t>
+          <t>Cimetière_de_Komarovo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Komarovo se trouve à Komarovo, petite commune balnéaire sous la juridiction de Saint-Pétersbourg, à 45 km de celle-ci et à un kilomètre du lac Chtchoutchié. Le cimetière a été ouvert dans les années 1910, mais ne comprenait qu'une quinzaine de tombes jusqu'en 1944. La tombe la plus anciennement conservée est celle du compositeur V. Savinski, enterré en 1915. Le cimetière est devenu à partir des années 1950 un cimetière où sont inhumées, outre les dépouilles des habitants de la commune, celles de personnalités de l'intelligentsia, des sciences, et du monde des arts et des lettres, la plus célèbre étant la poétesse Anna Akhmatova (1889-1966).
 Une partie du cimetière est inscrite au patrimoine historique fédéral.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Komarovo</t>
+          <t>Cimetière_de_Komarovo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités inhumées au cimetière de Komarovo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Akhmatova, poétesse
 Mikhaïl Alexeïev, académicien et spécialiste de littérature européenne
